--- a/Linq-Proper/Excel.xlsx
+++ b/Linq-Proper/Excel.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\await\OneDrive\Documents\UiPath\Linq-Proper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A8B50-D7BF-4FA8-A88A-5F1AC38FA22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EED90F-AD37-4528-8FB5-C532D763AB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="3045" windowWidth="10665" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -46,6 +48,30 @@
   </si>
   <si>
     <t>Beds</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tirupati</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Vijayawada</t>
+  </si>
+  <si>
+    <t>Repalle</t>
+  </si>
+  <si>
+    <t>Kadapa</t>
+  </si>
+  <si>
+    <t>Kakinada</t>
   </si>
 </sst>
 </file>
@@ -365,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -422,4 +448,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAEAEC5-645A-4C68-9099-797373DE8A98}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>517503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>520012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>526665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>542656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>520025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>517503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3261BBF-1164-4270-AE11-0EC2906CEF47}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>517503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>520012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>526665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>542656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>545457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>